--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Quantriduan-master\Quantriduan-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,9 +165,6 @@
     <t>Cpl. Date</t>
   </si>
   <si>
-    <t>20/08/2008</t>
-  </si>
-  <si>
     <t>Subtopic(abnormality)</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Chọn bản báo cáo tuần </t>
+  </si>
+  <si>
+    <t>Phần mền quản lý nhân viên</t>
   </si>
 </sst>
 </file>
@@ -888,34 +888,34 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1312,9 @@
         <f>[1]Overview!D9</f>
         <v xml:space="preserve"> Project Name:</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1323,8 +1325,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="9">
-        <f>COUNTIF(G1:G786,"OK")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>2</v>
@@ -1344,7 +1345,9 @@
       <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="17">
+        <v>9</v>
+      </c>
       <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1384,8 +1387,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="17">
-        <f>COUNTIF(G3:G788,"Result")</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
@@ -1418,36 +1420,36 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="81" t="s">
+      <c r="D8" s="88"/>
+      <c r="E8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="90" t="s">
+      <c r="F8" s="88"/>
+      <c r="G8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
@@ -1457,23 +1459,23 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="71"/>
       <c r="E9" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="34" t="s">
         <v>24</v>
-      </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="34" t="s">
-        <v>25</v>
       </c>
       <c r="J9" s="78"/>
     </row>
@@ -1503,13 +1505,13 @@
       <c r="E11" s="35"/>
       <c r="F11" s="36"/>
       <c r="G11" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="79"/>
     </row>
@@ -1537,31 +1539,31 @@
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38">
-        <v>43355</v>
+        <v>43586</v>
       </c>
       <c r="H13" s="38">
-        <v>43385</v>
+        <v>43587</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="84" t="s">
+      <c r="A14" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="84" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="86"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="42" t="s">
         <v>15</v>
       </c>
@@ -1571,19 +1573,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="65"/>
       <c r="C15" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="44"/>
@@ -1615,11 +1617,11 @@
       <c r="E17" s="35"/>
       <c r="F17" s="36"/>
       <c r="G17" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="79"/>
     </row>
@@ -1646,30 +1648,30 @@
       <c r="D19" s="75"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="38" t="s">
-        <v>22</v>
+      <c r="G19" s="38">
+        <v>43588</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="34"/>
       <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="84" t="s">
+      <c r="A20" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="86"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="42" t="s">
         <v>15</v>
       </c>
@@ -1679,23 +1681,23 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="71"/>
       <c r="E21" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="77"/>
       <c r="I21" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="78"/>
     </row>
@@ -1725,13 +1727,13 @@
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="79"/>
     </row>
@@ -1759,31 +1761,31 @@
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
       <c r="G25" s="38">
-        <v>43355</v>
+        <v>43589</v>
       </c>
       <c r="H25" s="38">
-        <v>43385</v>
+        <v>43590</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="79"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="84" t="s">
+      <c r="A26" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="84" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86" t="s">
+      <c r="F26" s="84"/>
+      <c r="G26" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="86"/>
+      <c r="H26" s="85"/>
       <c r="I26" s="42" t="s">
         <v>15</v>
       </c>
@@ -1793,19 +1795,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="65"/>
       <c r="C27" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="44"/>
@@ -1837,7 +1839,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
       <c r="G29" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="34"/>
@@ -1867,29 +1869,29 @@
       <c r="E31" s="39"/>
       <c r="F31" s="40"/>
       <c r="G31" s="38">
-        <v>43385</v>
+        <v>43592</v>
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="34"/>
       <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="84" t="s">
+      <c r="A32" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="84"/>
+      <c r="E32" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="42" t="s">
         <v>15</v>
       </c>
@@ -1899,19 +1901,19 @@
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="65"/>
       <c r="C33" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="77"/>
       <c r="I33" s="44"/>
@@ -1943,7 +1945,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="34"/>
@@ -1973,29 +1975,29 @@
       <c r="E37" s="39"/>
       <c r="F37" s="40"/>
       <c r="G37" s="38">
-        <v>43385</v>
+        <v>43593</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="34"/>
       <c r="J37" s="79"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="84" t="s">
+      <c r="A38" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="84" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86" t="s">
+      <c r="F38" s="84"/>
+      <c r="G38" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="86"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="42" t="s">
         <v>15</v>
       </c>
@@ -2005,19 +2007,19 @@
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="65"/>
       <c r="C39" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="77"/>
       <c r="I39" s="44"/>
@@ -2049,7 +2051,7 @@
       <c r="E41" s="35"/>
       <c r="F41" s="36"/>
       <c r="G41" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="34"/>
@@ -2079,7 +2081,7 @@
       <c r="E43" s="39"/>
       <c r="F43" s="40"/>
       <c r="G43" s="38">
-        <v>43385</v>
+        <v>43597</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="34"/>
@@ -2087,7 +2089,7 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
@@ -2101,7 +2103,7 @@
     </row>
     <row r="45" spans="1:10" ht="31.5">
       <c r="A45" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -2115,7 +2117,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="47" t="s">
@@ -2139,19 +2141,19 @@
     </row>
     <row r="47" spans="1:10" ht="31.5">
       <c r="A47" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H47" s="77"/>
       <c r="I47" s="34"/>
@@ -2183,10 +2185,10 @@
       <c r="E49" s="35"/>
       <c r="F49" s="36"/>
       <c r="G49" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="53"/>
@@ -2224,22 +2226,22 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="81" t="s">
+      <c r="B52" s="88"/>
+      <c r="C52" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="81" t="s">
+      <c r="D52" s="88"/>
+      <c r="E52" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83" t="s">
+      <c r="F52" s="88"/>
+      <c r="G52" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="83"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="37" t="s">
         <v>15</v>
       </c>
@@ -2249,23 +2251,23 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="65"/>
       <c r="C53" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="71"/>
       <c r="E53" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" s="71"/>
       <c r="G53" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H53" s="77"/>
       <c r="I53" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J53" s="78"/>
     </row>
@@ -2295,13 +2297,13 @@
       <c r="E55" s="72"/>
       <c r="F55" s="73"/>
       <c r="G55" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J55" s="79"/>
     </row>
@@ -2329,31 +2331,31 @@
       <c r="E57" s="74"/>
       <c r="F57" s="75"/>
       <c r="G57" s="38">
-        <v>43355</v>
+        <v>43506</v>
       </c>
       <c r="H57" s="38">
-        <v>43385</v>
+        <v>43508</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="80"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="81" t="s">
+      <c r="B58" s="88"/>
+      <c r="C58" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="82"/>
-      <c r="E58" s="81" t="s">
+      <c r="D58" s="88"/>
+      <c r="E58" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83" t="s">
+      <c r="F58" s="88"/>
+      <c r="G58" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="83"/>
+      <c r="H58" s="90"/>
       <c r="I58" s="37" t="s">
         <v>15</v>
       </c>
@@ -2363,19 +2365,19 @@
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
       <c r="A59" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="65"/>
       <c r="C59" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" s="71"/>
       <c r="E59" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="71"/>
       <c r="G59" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" s="77"/>
       <c r="I59" s="44"/>
@@ -2407,7 +2409,7 @@
       <c r="E61" s="72"/>
       <c r="F61" s="73"/>
       <c r="G61" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -2437,29 +2439,29 @@
       <c r="E63" s="74"/>
       <c r="F63" s="75"/>
       <c r="G63" s="38">
-        <v>43385</v>
+        <v>43508</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="34"/>
       <c r="J63" s="80"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="82"/>
-      <c r="C64" s="81" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="82"/>
-      <c r="E64" s="81" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="82"/>
-      <c r="G64" s="83" t="s">
+      <c r="F64" s="88"/>
+      <c r="G64" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="83"/>
+      <c r="H64" s="90"/>
       <c r="I64" s="37" t="s">
         <v>15</v>
       </c>
@@ -2469,23 +2471,23 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="65"/>
       <c r="C65" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="71"/>
       <c r="E65" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65" s="71"/>
       <c r="G65" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65" s="77"/>
       <c r="I65" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J65" s="78"/>
     </row>
@@ -2515,13 +2517,13 @@
       <c r="E67" s="72"/>
       <c r="F67" s="73"/>
       <c r="G67" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J67" s="79"/>
     </row>
@@ -2549,31 +2551,31 @@
       <c r="E69" s="74"/>
       <c r="F69" s="75"/>
       <c r="G69" s="38">
-        <v>43355</v>
+        <v>43525</v>
       </c>
       <c r="H69" s="38">
-        <v>43385</v>
+        <v>43526</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="80"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="81" t="s">
+      <c r="A70" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="81" t="s">
+      <c r="B70" s="88"/>
+      <c r="C70" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="82"/>
-      <c r="E70" s="81" t="s">
+      <c r="D70" s="88"/>
+      <c r="E70" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="82"/>
-      <c r="G70" s="83" t="s">
+      <c r="F70" s="88"/>
+      <c r="G70" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="83"/>
+      <c r="H70" s="90"/>
       <c r="I70" s="37" t="s">
         <v>15</v>
       </c>
@@ -2583,23 +2585,23 @@
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
       <c r="A71" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="65"/>
       <c r="C71" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="71"/>
       <c r="E71" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F71" s="71"/>
       <c r="G71" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71" s="78"/>
     </row>
@@ -2629,13 +2631,13 @@
       <c r="E73" s="72"/>
       <c r="F73" s="73"/>
       <c r="G73" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J73" s="79"/>
     </row>
@@ -2663,33 +2665,33 @@
       <c r="E75" s="74"/>
       <c r="F75" s="75"/>
       <c r="G75" s="38">
-        <v>43355</v>
+        <v>43527</v>
       </c>
       <c r="H75" s="38">
-        <v>43385</v>
+        <v>43528</v>
       </c>
       <c r="I75" s="34"/>
       <c r="J75" s="80"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="65"/>
       <c r="C76" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D76" s="71"/>
       <c r="E76" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F76" s="71"/>
       <c r="G76" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H76" s="77"/>
       <c r="I76" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J76" s="78"/>
     </row>
@@ -2719,13 +2721,13 @@
       <c r="E78" s="72"/>
       <c r="F78" s="73"/>
       <c r="G78" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78" s="79"/>
     </row>
@@ -2753,33 +2755,33 @@
       <c r="E80" s="74"/>
       <c r="F80" s="75"/>
       <c r="G80" s="38">
-        <v>43355</v>
+        <v>43529</v>
       </c>
       <c r="H80" s="38">
-        <v>43385</v>
+        <v>43530</v>
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="80"/>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
       <c r="A81" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="65"/>
       <c r="C81" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="71"/>
       <c r="E81" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F81" s="71"/>
       <c r="G81" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H81" s="77"/>
       <c r="I81" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J81" s="78"/>
     </row>
@@ -2809,13 +2811,13 @@
       <c r="E83" s="72"/>
       <c r="F83" s="73"/>
       <c r="G83" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83" s="79"/>
     </row>
@@ -2843,29 +2845,29 @@
       <c r="E85" s="74"/>
       <c r="F85" s="75"/>
       <c r="G85" s="38">
-        <v>43355</v>
+        <v>43531</v>
       </c>
       <c r="H85" s="38">
-        <v>43385</v>
+        <v>43532</v>
       </c>
       <c r="I85" s="34"/>
       <c r="J85" s="80"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="65"/>
       <c r="C86" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" s="71"/>
       <c r="E86" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F86" s="71"/>
       <c r="G86" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86" s="77"/>
       <c r="I86" s="44"/>
@@ -2897,7 +2899,7 @@
       <c r="E88" s="72"/>
       <c r="F88" s="73"/>
       <c r="G88" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
@@ -2927,7 +2929,7 @@
       <c r="E90" s="74"/>
       <c r="F90" s="75"/>
       <c r="G90" s="38">
-        <v>43355</v>
+        <v>43168</v>
       </c>
       <c r="H90" s="38"/>
       <c r="I90" s="34"/>
@@ -2935,19 +2937,19 @@
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="A91" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="65"/>
       <c r="C91" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D91" s="71"/>
       <c r="E91" s="70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F91" s="71"/>
       <c r="G91" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H91" s="77"/>
       <c r="I91" s="44"/>
@@ -2979,7 +2981,7 @@
       <c r="E93" s="72"/>
       <c r="F93" s="73"/>
       <c r="G93" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -3009,7 +3011,7 @@
       <c r="E95" s="74"/>
       <c r="F95" s="75"/>
       <c r="G95" s="38">
-        <v>43355</v>
+        <v>43168</v>
       </c>
       <c r="H95" s="38"/>
       <c r="I95" s="34"/>
@@ -3017,23 +3019,23 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" s="65"/>
       <c r="C96" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" s="71"/>
       <c r="E96" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F96" s="71"/>
       <c r="G96" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H96" s="77"/>
       <c r="I96" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J96" s="78"/>
     </row>
@@ -3063,13 +3065,13 @@
       <c r="E98" s="72"/>
       <c r="F98" s="73"/>
       <c r="G98" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98" s="79"/>
     </row>
@@ -3097,33 +3099,33 @@
       <c r="E100" s="74"/>
       <c r="F100" s="75"/>
       <c r="G100" s="38">
-        <v>43355</v>
+        <v>43521</v>
       </c>
       <c r="H100" s="38">
-        <v>43385</v>
+        <v>43522</v>
       </c>
       <c r="I100" s="34"/>
       <c r="J100" s="80"/>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1">
       <c r="A101" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" s="65"/>
       <c r="C101" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D101" s="71"/>
       <c r="E101" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F101" s="71"/>
       <c r="G101" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H101" s="77"/>
       <c r="I101" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J101" s="78"/>
     </row>
@@ -3153,13 +3155,13 @@
       <c r="E103" s="72"/>
       <c r="F103" s="73"/>
       <c r="G103" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H103" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J103" s="79"/>
     </row>
@@ -3187,33 +3189,33 @@
       <c r="E105" s="74"/>
       <c r="F105" s="75"/>
       <c r="G105" s="38">
-        <v>43355</v>
+        <v>43523</v>
       </c>
       <c r="H105" s="38">
-        <v>43385</v>
+        <v>43526</v>
       </c>
       <c r="I105" s="34"/>
       <c r="J105" s="80"/>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
       <c r="A106" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" s="65"/>
       <c r="C106" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D106" s="71"/>
       <c r="E106" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F106" s="71"/>
       <c r="G106" s="76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H106" s="77"/>
       <c r="I106" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J106" s="78"/>
     </row>
@@ -3243,13 +3245,13 @@
       <c r="E108" s="72"/>
       <c r="F108" s="73"/>
       <c r="G108" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H108" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J108" s="79"/>
     </row>
@@ -3277,29 +3279,29 @@
       <c r="E110" s="74"/>
       <c r="F110" s="75"/>
       <c r="G110" s="38">
-        <v>43355</v>
+        <v>43526</v>
       </c>
       <c r="H110" s="38">
-        <v>43385</v>
+        <v>43528</v>
       </c>
       <c r="I110" s="34"/>
       <c r="J110" s="80"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B111" s="65"/>
       <c r="C111" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D111" s="71"/>
       <c r="E111" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F111" s="71"/>
       <c r="G111" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H111" s="77"/>
       <c r="I111" s="44"/>
@@ -3331,7 +3333,7 @@
       <c r="E113" s="72"/>
       <c r="F113" s="73"/>
       <c r="G113" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
@@ -3361,7 +3363,7 @@
       <c r="E115" s="74"/>
       <c r="F115" s="75"/>
       <c r="G115" s="38">
-        <v>43355</v>
+        <v>43529</v>
       </c>
       <c r="H115" s="38"/>
       <c r="I115" s="34"/>
@@ -3369,19 +3371,19 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B116" s="65"/>
       <c r="C116" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D116" s="71"/>
       <c r="E116" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F116" s="71"/>
       <c r="G116" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H116" s="77"/>
       <c r="I116" s="44"/>
@@ -3413,7 +3415,7 @@
       <c r="E118" s="72"/>
       <c r="F118" s="73"/>
       <c r="G118" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H118" s="38"/>
       <c r="I118" s="38"/>
@@ -3443,7 +3445,7 @@
       <c r="E120" s="74"/>
       <c r="F120" s="75"/>
       <c r="G120" s="38">
-        <v>43356</v>
+        <v>43530</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="34"/>
@@ -3451,19 +3453,19 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B121" s="65"/>
       <c r="C121" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D121" s="71"/>
       <c r="E121" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F121" s="71"/>
       <c r="G121" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121" s="77"/>
       <c r="I121" s="44"/>
@@ -3495,7 +3497,7 @@
       <c r="E123" s="72"/>
       <c r="F123" s="73"/>
       <c r="G123" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
@@ -3525,7 +3527,7 @@
       <c r="E125" s="74"/>
       <c r="F125" s="75"/>
       <c r="G125" s="38">
-        <v>43356</v>
+        <v>43556</v>
       </c>
       <c r="H125" s="38"/>
       <c r="I125" s="34"/>
@@ -3533,19 +3535,19 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126" s="65"/>
       <c r="C126" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" s="71"/>
       <c r="E126" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F126" s="71"/>
       <c r="G126" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H126" s="77"/>
       <c r="I126" s="44"/>
@@ -3577,7 +3579,7 @@
       <c r="E128" s="72"/>
       <c r="F128" s="73"/>
       <c r="G128" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H128" s="38"/>
       <c r="I128" s="38"/>
@@ -3607,7 +3609,7 @@
       <c r="E130" s="74"/>
       <c r="F130" s="75"/>
       <c r="G130" s="38">
-        <v>43357</v>
+        <v>43565</v>
       </c>
       <c r="H130" s="38"/>
       <c r="I130" s="34"/>
@@ -3615,34 +3617,95 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="A126:B130"/>
-    <mergeCell ref="C126:D130"/>
-    <mergeCell ref="E126:F130"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="J126:J130"/>
-    <mergeCell ref="A116:B120"/>
-    <mergeCell ref="C116:D120"/>
-    <mergeCell ref="E116:F120"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="J116:J120"/>
-    <mergeCell ref="A121:B125"/>
-    <mergeCell ref="C121:D125"/>
-    <mergeCell ref="E121:F125"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:J125"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A111:B115"/>
+    <mergeCell ref="C111:D115"/>
+    <mergeCell ref="E111:F115"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="J111:J115"/>
+    <mergeCell ref="A106:B110"/>
+    <mergeCell ref="C106:D110"/>
+    <mergeCell ref="E106:F110"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="A101:B105"/>
+    <mergeCell ref="C101:D105"/>
+    <mergeCell ref="E101:F105"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="A96:B100"/>
+    <mergeCell ref="C96:D100"/>
+    <mergeCell ref="E96:F100"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="J96:J100"/>
+    <mergeCell ref="A91:B95"/>
+    <mergeCell ref="C91:D95"/>
+    <mergeCell ref="E91:F95"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="J91:J95"/>
+    <mergeCell ref="A86:B90"/>
+    <mergeCell ref="C86:D90"/>
+    <mergeCell ref="E86:F90"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="A81:B85"/>
+    <mergeCell ref="C81:D85"/>
+    <mergeCell ref="E81:F85"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="J81:J85"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A76:B80"/>
+    <mergeCell ref="C76:D80"/>
+    <mergeCell ref="E76:F80"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="A71:B75"/>
+    <mergeCell ref="C71:D75"/>
+    <mergeCell ref="E71:F75"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="C39:D43"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B37"/>
+    <mergeCell ref="C33:D37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B31"/>
+    <mergeCell ref="C27:D31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="C53:D57"/>
+    <mergeCell ref="E53:F57"/>
+    <mergeCell ref="G53:H53"/>
     <mergeCell ref="A65:B69"/>
     <mergeCell ref="C65:D69"/>
     <mergeCell ref="E65:F69"/>
@@ -3667,95 +3730,34 @@
     <mergeCell ref="A59:B63"/>
     <mergeCell ref="C59:D63"/>
     <mergeCell ref="E59:F63"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="C53:D57"/>
-    <mergeCell ref="E53:F57"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B37"/>
-    <mergeCell ref="C33:D37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B31"/>
-    <mergeCell ref="C27:D31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="C39:D43"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A81:B85"/>
-    <mergeCell ref="C81:D85"/>
-    <mergeCell ref="E81:F85"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="J81:J85"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A76:B80"/>
-    <mergeCell ref="C76:D80"/>
-    <mergeCell ref="E76:F80"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="J76:J80"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="A71:B75"/>
-    <mergeCell ref="C71:D75"/>
-    <mergeCell ref="E71:F75"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A91:B95"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="E91:F95"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="J91:J95"/>
-    <mergeCell ref="A86:B90"/>
-    <mergeCell ref="C86:D90"/>
-    <mergeCell ref="E86:F90"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="J86:J90"/>
-    <mergeCell ref="A101:B105"/>
-    <mergeCell ref="C101:D105"/>
-    <mergeCell ref="E101:F105"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="A96:B100"/>
-    <mergeCell ref="C96:D100"/>
-    <mergeCell ref="E96:F100"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="J96:J100"/>
-    <mergeCell ref="A111:B115"/>
-    <mergeCell ref="C111:D115"/>
-    <mergeCell ref="E111:F115"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="J111:J115"/>
-    <mergeCell ref="A106:B110"/>
-    <mergeCell ref="C106:D110"/>
-    <mergeCell ref="E106:F110"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A126:B130"/>
+    <mergeCell ref="C126:D130"/>
+    <mergeCell ref="E126:F130"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="A116:B120"/>
+    <mergeCell ref="C116:D120"/>
+    <mergeCell ref="E116:F120"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="J116:J120"/>
+    <mergeCell ref="A121:B125"/>
+    <mergeCell ref="C121:D125"/>
+    <mergeCell ref="E121:F125"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:J125"/>
   </mergeCells>
   <conditionalFormatting sqref="G58:H58 G64:H64 G70:H70">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Quantriduan-master\Quantriduan-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trang To\Desktop\quản lý dự án\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDAB92-4E50-4A44-94DF-D0A9469216F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nguyen Duc Tien</author>
   </authors>
   <commentList>
-    <comment ref="A45" authorId="0" shapeId="0">
+    <comment ref="A45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="0" shapeId="0">
+    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0">
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0">
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="73">
   <si>
     <t>Result:</t>
   </si>
@@ -172,9 +173,6 @@
   </si>
   <si>
     <t>BUG21312</t>
-  </si>
-  <si>
-    <t>TienND</t>
   </si>
   <si>
     <t>Test với tham số chỉ định</t>
@@ -331,12 +329,15 @@
   </si>
   <si>
     <t>Phần mền quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>BUG212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -646,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,18 +817,12 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -888,40 +883,58 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -955,7 +968,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
@@ -1288,11 +1301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1313,7 +1326,7 @@
         <v xml:space="preserve"> Project Name:</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
@@ -1420,36 +1433,36 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="87" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="89"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
@@ -1458,32 +1471,32 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="71"/>
+      <c r="A9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="69"/>
       <c r="E9" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="78"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="35"/>
       <c r="F10" s="36"/>
       <c r="G10" s="37" t="s">
@@ -1495,31 +1508,31 @@
       <c r="I10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="35"/>
       <c r="F11" s="36"/>
       <c r="G11" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="35"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37" t="s">
@@ -1529,13 +1542,13 @@
         <v>21</v>
       </c>
       <c r="I12" s="37"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38">
@@ -1545,25 +1558,25 @@
         <v>43587</v>
       </c>
       <c r="I13" s="41"/>
-      <c r="J13" s="80"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85" t="s">
+      <c r="F14" s="83"/>
+      <c r="G14" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="42" t="s">
         <v>15</v>
       </c>
@@ -1572,30 +1585,30 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="71"/>
+      <c r="A15" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="69"/>
       <c r="E15" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="77"/>
+      <c r="G15" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="75"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="78"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="35"/>
       <c r="F16" s="36"/>
       <c r="G16" s="42" t="s">
@@ -1607,29 +1620,27 @@
       <c r="I16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="79"/>
+      <c r="J16" s="77"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="35"/>
       <c r="F17" s="36"/>
       <c r="G17" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="38"/>
-      <c r="I17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="79"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="42" t="s">
@@ -1639,13 +1650,13 @@
         <v>21</v>
       </c>
       <c r="I18" s="42"/>
-      <c r="J18" s="79"/>
+      <c r="J18" s="77"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38">
@@ -1653,25 +1664,25 @@
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="79"/>
+      <c r="J19" s="77"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="83" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="83" t="s">
+      <c r="D20" s="83"/>
+      <c r="E20" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="42" t="s">
         <v>15</v>
       </c>
@@ -1680,32 +1691,32 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="32" t="s">
-        <v>40</v>
-      </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="77"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="78"/>
+        <v>28</v>
+      </c>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
       <c r="G22" s="42" t="s">
@@ -1717,31 +1728,31 @@
       <c r="I22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="79"/>
+      <c r="J22" s="77"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="35"/>
       <c r="F24" s="36"/>
       <c r="G24" s="42" t="s">
@@ -1751,13 +1762,13 @@
         <v>21</v>
       </c>
       <c r="I24" s="42"/>
-      <c r="J24" s="79"/>
+      <c r="J24" s="77"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
       <c r="G25" s="38">
@@ -1767,25 +1778,25 @@
         <v>43590</v>
       </c>
       <c r="I25" s="34"/>
-      <c r="J25" s="79"/>
+      <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="83" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="83" t="s">
+      <c r="D26" s="83"/>
+      <c r="E26" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="85"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="42" t="s">
         <v>15</v>
       </c>
@@ -1794,30 +1805,30 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="71"/>
+      <c r="A27" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="69"/>
       <c r="E27" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="33"/>
-      <c r="G27" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="77"/>
+      <c r="G27" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="75"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="78"/>
+      <c r="J27" s="76"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="35"/>
       <c r="F28" s="36"/>
       <c r="G28" s="42" t="s">
@@ -1829,27 +1840,27 @@
       <c r="I28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="79"/>
+      <c r="J28" s="77"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
       <c r="G29" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="34"/>
-      <c r="J29" s="79"/>
+      <c r="J29" s="77"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="42" t="s">
@@ -1859,13 +1870,13 @@
         <v>21</v>
       </c>
       <c r="I30" s="42"/>
-      <c r="J30" s="79"/>
+      <c r="J30" s="77"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="39"/>
       <c r="F31" s="40"/>
       <c r="G31" s="38">
@@ -1873,25 +1884,25 @@
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="79"/>
+      <c r="J31" s="77"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="83"/>
+      <c r="C32" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="83" t="s">
+      <c r="D32" s="83"/>
+      <c r="E32" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85" t="s">
+      <c r="F32" s="83"/>
+      <c r="G32" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="42" t="s">
         <v>15</v>
       </c>
@@ -1900,30 +1911,30 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="71"/>
+      <c r="A33" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="69"/>
       <c r="E33" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="77"/>
+      <c r="G33" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="75"/>
       <c r="I33" s="44"/>
-      <c r="J33" s="78"/>
+      <c r="J33" s="76"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="42" t="s">
@@ -1935,27 +1946,27 @@
       <c r="I34" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="79"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="79"/>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="42" t="s">
@@ -1965,13 +1976,13 @@
         <v>21</v>
       </c>
       <c r="I36" s="42"/>
-      <c r="J36" s="79"/>
+      <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="39"/>
       <c r="F37" s="40"/>
       <c r="G37" s="38">
@@ -1979,25 +1990,25 @@
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="79"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="83" t="s">
+      <c r="B38" s="83"/>
+      <c r="C38" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="84"/>
-      <c r="E38" s="83" t="s">
+      <c r="D38" s="83"/>
+      <c r="E38" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85" t="s">
+      <c r="F38" s="83"/>
+      <c r="G38" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="85"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="42" t="s">
         <v>15</v>
       </c>
@@ -2006,30 +2017,30 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="71"/>
+      <c r="A39" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="69"/>
       <c r="E39" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="33"/>
-      <c r="G39" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="77"/>
+      <c r="G39" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="75"/>
       <c r="I39" s="44"/>
-      <c r="J39" s="78"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="35"/>
       <c r="F40" s="36"/>
       <c r="G40" s="42" t="s">
@@ -2041,27 +2052,27 @@
       <c r="I40" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="79"/>
+      <c r="J40" s="77"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="66"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="35"/>
       <c r="F41" s="36"/>
       <c r="G41" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="79"/>
+      <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="35"/>
       <c r="F42" s="36"/>
       <c r="G42" s="42" t="s">
@@ -2071,13 +2082,13 @@
         <v>21</v>
       </c>
       <c r="I42" s="42"/>
-      <c r="J42" s="79"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="39"/>
       <c r="F43" s="40"/>
       <c r="G43" s="38">
@@ -2085,41 +2096,41 @@
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="34"/>
-      <c r="J43" s="79"/>
-    </row>
-    <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="57" t="s">
+      <c r="J43" s="77"/>
+    </row>
+    <row r="44" spans="1:10" ht="21" customHeight="1">
+      <c r="A44" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A45" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.5">
-      <c r="A45" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="47" t="s">
         <v>12</v>
       </c>
@@ -2128,10 +2139,10 @@
         <v>13</v>
       </c>
       <c r="F46" s="48"/>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="48"/>
+      <c r="H46" s="90"/>
       <c r="I46" s="42" t="s">
         <v>15</v>
       </c>
@@ -2140,23 +2151,25 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="31.5">
-      <c r="A47" s="63" t="s">
-        <v>46</v>
+      <c r="A47" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="33"/>
-      <c r="G47" s="76" t="s">
+      <c r="G47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="77"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10">
@@ -2185,12 +2198,14 @@
       <c r="E49" s="35"/>
       <c r="F49" s="36"/>
       <c r="G49" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="J49" s="53"/>
     </row>
     <row r="50" spans="1:10">
@@ -2226,22 +2241,22 @@
       <c r="J51" s="56"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="88"/>
-      <c r="C52" s="87" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="87" t="s">
+      <c r="D52" s="80"/>
+      <c r="E52" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="90" t="s">
+      <c r="F52" s="80"/>
+      <c r="G52" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="90"/>
+      <c r="H52" s="81"/>
       <c r="I52" s="37" t="s">
         <v>15</v>
       </c>
@@ -2250,34 +2265,34 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="63"/>
+      <c r="C53" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="70" t="s">
+      <c r="D53" s="69"/>
+      <c r="E53" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="76" t="s">
+      <c r="F53" s="69"/>
+      <c r="G53" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="77"/>
+      <c r="H53" s="75"/>
       <c r="I53" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="J53" s="76"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="73"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71"/>
       <c r="G54" s="37" t="s">
         <v>17</v>
       </c>
@@ -2287,33 +2302,33 @@
       <c r="I54" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="79"/>
+      <c r="J54" s="77"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="73"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J55" s="77"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="66"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="73"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="37" t="s">
         <v>20</v>
       </c>
@@ -2321,15 +2336,15 @@
         <v>21</v>
       </c>
       <c r="I56" s="37"/>
-      <c r="J56" s="79"/>
+      <c r="J56" s="77"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="73"/>
       <c r="G57" s="38">
         <v>43506</v>
       </c>
@@ -2337,25 +2352,25 @@
         <v>43508</v>
       </c>
       <c r="I57" s="34"/>
-      <c r="J57" s="80"/>
+      <c r="J57" s="78"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="88"/>
-      <c r="C58" s="87" t="s">
+      <c r="B58" s="80"/>
+      <c r="C58" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="87" t="s">
+      <c r="D58" s="80"/>
+      <c r="E58" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="90" t="s">
+      <c r="F58" s="80"/>
+      <c r="G58" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="90"/>
+      <c r="H58" s="81"/>
       <c r="I58" s="37" t="s">
         <v>15</v>
       </c>
@@ -2364,32 +2379,32 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="63"/>
+      <c r="C59" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="77"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="69"/>
+      <c r="G59" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="75"/>
       <c r="I59" s="44"/>
-      <c r="J59" s="78"/>
+      <c r="J59" s="76"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="73"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="71"/>
       <c r="G60" s="37" t="s">
         <v>17</v>
       </c>
@@ -2399,29 +2414,29 @@
       <c r="I60" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="79"/>
+      <c r="J60" s="77"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="73"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
-      <c r="J61" s="79"/>
+      <c r="J61" s="77"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="66"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="73"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="71"/>
       <c r="G62" s="37" t="s">
         <v>20</v>
       </c>
@@ -2429,39 +2444,39 @@
         <v>21</v>
       </c>
       <c r="I62" s="37"/>
-      <c r="J62" s="79"/>
+      <c r="J62" s="77"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
-      <c r="A63" s="68"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="75"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="73"/>
       <c r="G63" s="38">
         <v>43508</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="34"/>
-      <c r="J63" s="80"/>
+      <c r="J63" s="78"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="87" t="s">
+      <c r="B64" s="80"/>
+      <c r="C64" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="88"/>
-      <c r="E64" s="87" t="s">
+      <c r="D64" s="80"/>
+      <c r="E64" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="90" t="s">
+      <c r="F64" s="80"/>
+      <c r="G64" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="90"/>
+      <c r="H64" s="81"/>
       <c r="I64" s="37" t="s">
         <v>15</v>
       </c>
@@ -2470,34 +2485,34 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="63"/>
+      <c r="C65" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="70" t="s">
+      <c r="D65" s="69"/>
+      <c r="E65" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="76" t="s">
+      <c r="F65" s="69"/>
+      <c r="G65" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="77"/>
+      <c r="H65" s="75"/>
       <c r="I65" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J65" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="73"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="71"/>
       <c r="G66" s="37" t="s">
         <v>17</v>
       </c>
@@ -2507,33 +2522,33 @@
       <c r="I66" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="79"/>
+      <c r="J66" s="77"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="66"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="73"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J67" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J67" s="77"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="66"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="73"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="37" t="s">
         <v>20</v>
       </c>
@@ -2541,15 +2556,15 @@
         <v>21</v>
       </c>
       <c r="I68" s="37"/>
-      <c r="J68" s="79"/>
+      <c r="J68" s="77"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="68"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="75"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="38">
         <v>43525</v>
       </c>
@@ -2557,25 +2572,25 @@
         <v>43526</v>
       </c>
       <c r="I69" s="34"/>
-      <c r="J69" s="80"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="87" t="s">
+      <c r="B70" s="80"/>
+      <c r="C70" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="88"/>
-      <c r="E70" s="87" t="s">
+      <c r="D70" s="80"/>
+      <c r="E70" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="90" t="s">
+      <c r="F70" s="80"/>
+      <c r="G70" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="90"/>
+      <c r="H70" s="81"/>
       <c r="I70" s="37" t="s">
         <v>15</v>
       </c>
@@ -2584,34 +2599,34 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="63"/>
+      <c r="C71" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="70" t="s">
+      <c r="D71" s="69"/>
+      <c r="E71" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="71"/>
-      <c r="E71" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="71"/>
-      <c r="G71" s="76" t="s">
+      <c r="F71" s="69"/>
+      <c r="G71" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="77"/>
+      <c r="H71" s="75"/>
       <c r="I71" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J71" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="J71" s="76"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="66"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="73"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="71"/>
       <c r="G72" s="37" t="s">
         <v>17</v>
       </c>
@@ -2621,33 +2636,33 @@
       <c r="I72" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="79"/>
+      <c r="J72" s="77"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="66"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="73"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="71"/>
       <c r="G73" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J73" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J73" s="77"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="73"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71"/>
       <c r="G74" s="37" t="s">
         <v>20</v>
       </c>
@@ -2655,15 +2670,15 @@
         <v>21</v>
       </c>
       <c r="I74" s="37"/>
-      <c r="J74" s="79"/>
+      <c r="J74" s="77"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="68"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="75"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="73"/>
       <c r="G75" s="38">
         <v>43527</v>
       </c>
@@ -2671,37 +2686,37 @@
         <v>43528</v>
       </c>
       <c r="I75" s="34"/>
-      <c r="J75" s="80"/>
+      <c r="J75" s="78"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="63"/>
+      <c r="C76" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="65"/>
-      <c r="C76" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="71"/>
-      <c r="E76" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" s="71"/>
-      <c r="G76" s="76" t="s">
+      <c r="D76" s="69"/>
+      <c r="E76" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="69"/>
+      <c r="G76" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="77"/>
+      <c r="H76" s="75"/>
       <c r="I76" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J76" s="78"/>
+        <v>30</v>
+      </c>
+      <c r="J76" s="76"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="66"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="73"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="71"/>
       <c r="G77" s="37" t="s">
         <v>17</v>
       </c>
@@ -2711,33 +2726,33 @@
       <c r="I77" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="79"/>
+      <c r="J77" s="77"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="66"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="73"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="71"/>
       <c r="G78" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J78" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J78" s="77"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="66"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="73"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="71"/>
       <c r="G79" s="37" t="s">
         <v>20</v>
       </c>
@@ -2745,15 +2760,15 @@
         <v>21</v>
       </c>
       <c r="I79" s="37"/>
-      <c r="J79" s="79"/>
+      <c r="J79" s="77"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="68"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="75"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="73"/>
       <c r="G80" s="38">
         <v>43529</v>
       </c>
@@ -2761,37 +2776,37 @@
         <v>43530</v>
       </c>
       <c r="I80" s="34"/>
-      <c r="J80" s="80"/>
+      <c r="J80" s="78"/>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="63"/>
+      <c r="C81" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="71"/>
-      <c r="E81" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="76" t="s">
+      <c r="D81" s="69"/>
+      <c r="E81" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="69"/>
+      <c r="G81" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="77"/>
+      <c r="H81" s="75"/>
       <c r="I81" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J81" s="78"/>
+        <v>30</v>
+      </c>
+      <c r="J81" s="76"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="66"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="73"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="71"/>
       <c r="G82" s="37" t="s">
         <v>17</v>
       </c>
@@ -2801,33 +2816,33 @@
       <c r="I82" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="79"/>
+      <c r="J82" s="77"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="66"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="73"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="71"/>
       <c r="G83" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J83" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J83" s="77"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="66"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="73"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="71"/>
       <c r="G84" s="37" t="s">
         <v>20</v>
       </c>
@@ -2835,15 +2850,15 @@
         <v>21</v>
       </c>
       <c r="I84" s="37"/>
-      <c r="J84" s="79"/>
+      <c r="J84" s="77"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="68"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="75"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="73"/>
       <c r="G85" s="38">
         <v>43531</v>
       </c>
@@ -2851,35 +2866,35 @@
         <v>43532</v>
       </c>
       <c r="I85" s="34"/>
-      <c r="J85" s="80"/>
+      <c r="J85" s="78"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="63"/>
+      <c r="C86" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="71"/>
-      <c r="E86" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="F86" s="71"/>
-      <c r="G86" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H86" s="77"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="69"/>
+      <c r="G86" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="75"/>
       <c r="I86" s="44"/>
-      <c r="J86" s="78"/>
+      <c r="J86" s="76"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="66"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="73"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="71"/>
       <c r="G87" s="37" t="s">
         <v>17</v>
       </c>
@@ -2889,29 +2904,29 @@
       <c r="I87" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J87" s="79"/>
+      <c r="J87" s="77"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="66"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="73"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="71"/>
       <c r="G88" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
-      <c r="J88" s="79"/>
+      <c r="J88" s="77"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="66"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="73"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="71"/>
       <c r="G89" s="37" t="s">
         <v>20</v>
       </c>
@@ -2919,49 +2934,49 @@
         <v>21</v>
       </c>
       <c r="I89" s="37"/>
-      <c r="J89" s="79"/>
+      <c r="J89" s="77"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="68"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="75"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="73"/>
       <c r="G90" s="38">
         <v>43168</v>
       </c>
       <c r="H90" s="38"/>
       <c r="I90" s="34"/>
-      <c r="J90" s="80"/>
+      <c r="J90" s="78"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="71"/>
-      <c r="G91" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" s="77"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="69"/>
+      <c r="G91" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="75"/>
       <c r="I91" s="44"/>
-      <c r="J91" s="78"/>
+      <c r="J91" s="76"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="66"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="73"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="71"/>
       <c r="G92" s="37" t="s">
         <v>17</v>
       </c>
@@ -2971,29 +2986,29 @@
       <c r="I92" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J92" s="79"/>
+      <c r="J92" s="77"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="66"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="73"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="71"/>
       <c r="G93" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
-      <c r="J93" s="79"/>
+      <c r="J93" s="77"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="66"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="73"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="70"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="71"/>
       <c r="G94" s="37" t="s">
         <v>20</v>
       </c>
@@ -3001,51 +3016,51 @@
         <v>21</v>
       </c>
       <c r="I94" s="37"/>
-      <c r="J94" s="79"/>
+      <c r="J94" s="77"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="68"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="73"/>
       <c r="G95" s="38">
         <v>43168</v>
       </c>
       <c r="H95" s="38"/>
       <c r="I95" s="34"/>
-      <c r="J95" s="80"/>
+      <c r="J95" s="78"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="63"/>
+      <c r="C96" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="C96" s="70" t="s">
+      <c r="D96" s="69"/>
+      <c r="E96" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="71"/>
-      <c r="E96" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="71"/>
-      <c r="G96" s="76" t="s">
+      <c r="F96" s="69"/>
+      <c r="G96" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H96" s="77"/>
+      <c r="H96" s="75"/>
       <c r="I96" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="J96" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="J96" s="76"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="66"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="73"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="71"/>
       <c r="G97" s="37" t="s">
         <v>17</v>
       </c>
@@ -3055,33 +3070,33 @@
       <c r="I97" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J97" s="79"/>
+      <c r="J97" s="77"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="66"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="73"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="71"/>
       <c r="G98" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J98" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J98" s="77"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="66"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="73"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="71"/>
       <c r="G99" s="37" t="s">
         <v>20</v>
       </c>
@@ -3089,15 +3104,15 @@
         <v>21</v>
       </c>
       <c r="I99" s="37"/>
-      <c r="J99" s="79"/>
+      <c r="J99" s="77"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="68"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="75"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="73"/>
       <c r="G100" s="38">
         <v>43521</v>
       </c>
@@ -3105,37 +3120,37 @@
         <v>43522</v>
       </c>
       <c r="I100" s="34"/>
-      <c r="J100" s="80"/>
+      <c r="J100" s="78"/>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="63"/>
+      <c r="C101" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="70" t="s">
+      <c r="D101" s="69"/>
+      <c r="E101" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="71"/>
-      <c r="E101" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="71"/>
-      <c r="G101" s="76" t="s">
+      <c r="F101" s="69"/>
+      <c r="G101" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H101" s="77"/>
+      <c r="H101" s="75"/>
       <c r="I101" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="J101" s="78"/>
+        <v>54</v>
+      </c>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="66"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="73"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="71"/>
       <c r="G102" s="37" t="s">
         <v>17</v>
       </c>
@@ -3145,33 +3160,33 @@
       <c r="I102" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="79"/>
+      <c r="J102" s="77"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="66"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="73"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="71"/>
       <c r="G103" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H103" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J103" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J103" s="77"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="66"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="73"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="71"/>
       <c r="G104" s="37" t="s">
         <v>20</v>
       </c>
@@ -3179,15 +3194,15 @@
         <v>21</v>
       </c>
       <c r="I104" s="37"/>
-      <c r="J104" s="79"/>
+      <c r="J104" s="77"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="68"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="75"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="73"/>
       <c r="G105" s="38">
         <v>43523</v>
       </c>
@@ -3195,37 +3210,37 @@
         <v>43526</v>
       </c>
       <c r="I105" s="34"/>
-      <c r="J105" s="80"/>
+      <c r="J105" s="78"/>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="63"/>
+      <c r="C106" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="71"/>
-      <c r="E106" s="70" t="s">
+      <c r="D106" s="69"/>
+      <c r="E106" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="69"/>
+      <c r="G106" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="75"/>
+      <c r="I106" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F106" s="71"/>
-      <c r="G106" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" s="77"/>
-      <c r="I106" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="J106" s="78"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="66"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="73"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="71"/>
       <c r="G107" s="37" t="s">
         <v>17</v>
       </c>
@@ -3235,33 +3250,33 @@
       <c r="I107" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="79"/>
+      <c r="J107" s="77"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="66"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="73"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="71"/>
       <c r="G108" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H108" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J108" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="J108" s="77"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="66"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="73"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="71"/>
       <c r="G109" s="37" t="s">
         <v>20</v>
       </c>
@@ -3269,15 +3284,15 @@
         <v>21</v>
       </c>
       <c r="I109" s="37"/>
-      <c r="J109" s="79"/>
+      <c r="J109" s="77"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="68"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="75"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="75"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="73"/>
       <c r="G110" s="38">
         <v>43526</v>
       </c>
@@ -3285,35 +3300,35 @@
         <v>43528</v>
       </c>
       <c r="I110" s="34"/>
-      <c r="J110" s="80"/>
+      <c r="J110" s="78"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="63"/>
+      <c r="C111" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" s="71"/>
-      <c r="E111" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="71"/>
-      <c r="G111" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H111" s="77"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="69"/>
+      <c r="G111" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="75"/>
       <c r="I111" s="44"/>
-      <c r="J111" s="78"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="66"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="73"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="71"/>
       <c r="G112" s="37" t="s">
         <v>17</v>
       </c>
@@ -3323,29 +3338,29 @@
       <c r="I112" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J112" s="79"/>
+      <c r="J112" s="77"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="66"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="73"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="71"/>
       <c r="G113" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
-      <c r="J113" s="79"/>
+      <c r="J113" s="77"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="66"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="73"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="71"/>
       <c r="G114" s="37" t="s">
         <v>20</v>
       </c>
@@ -3353,49 +3368,49 @@
         <v>21</v>
       </c>
       <c r="I114" s="37"/>
-      <c r="J114" s="79"/>
+      <c r="J114" s="77"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="68"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="75"/>
+      <c r="A115" s="66"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="73"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="73"/>
       <c r="G115" s="38">
         <v>43529</v>
       </c>
       <c r="H115" s="38"/>
       <c r="I115" s="34"/>
-      <c r="J115" s="80"/>
+      <c r="J115" s="78"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="64" t="s">
+      <c r="A116" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="63"/>
+      <c r="C116" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="65"/>
-      <c r="C116" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="71"/>
-      <c r="E116" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="71"/>
-      <c r="G116" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" s="77"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="69"/>
+      <c r="G116" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H116" s="75"/>
       <c r="I116" s="44"/>
-      <c r="J116" s="78"/>
+      <c r="J116" s="76"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="66"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="73"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="71"/>
       <c r="G117" s="45" t="s">
         <v>17</v>
       </c>
@@ -3405,29 +3420,29 @@
       <c r="I117" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J117" s="79"/>
+      <c r="J117" s="77"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="66"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="73"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="71"/>
       <c r="G118" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H118" s="38"/>
       <c r="I118" s="38"/>
-      <c r="J118" s="79"/>
+      <c r="J118" s="77"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="66"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="72"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="73"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="71"/>
       <c r="G119" s="45" t="s">
         <v>20</v>
       </c>
@@ -3435,49 +3450,49 @@
         <v>21</v>
       </c>
       <c r="I119" s="45"/>
-      <c r="J119" s="79"/>
+      <c r="J119" s="77"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="68"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="75"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="73"/>
       <c r="G120" s="38">
         <v>43530</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="34"/>
-      <c r="J120" s="80"/>
+      <c r="J120" s="78"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="64" t="s">
+      <c r="A121" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="63"/>
+      <c r="C121" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="70" t="s">
+      <c r="D121" s="69"/>
+      <c r="E121" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D121" s="71"/>
-      <c r="E121" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F121" s="71"/>
-      <c r="G121" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H121" s="77"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H121" s="75"/>
       <c r="I121" s="44"/>
-      <c r="J121" s="78"/>
+      <c r="J121" s="76"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="66"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="73"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="70"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="71"/>
       <c r="G122" s="45" t="s">
         <v>17</v>
       </c>
@@ -3487,29 +3502,29 @@
       <c r="I122" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J122" s="79"/>
+      <c r="J122" s="77"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="66"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="73"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="73"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="71"/>
       <c r="G123" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
-      <c r="J123" s="79"/>
+      <c r="J123" s="77"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="66"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="73"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="71"/>
       <c r="G124" s="45" t="s">
         <v>20</v>
       </c>
@@ -3517,49 +3532,49 @@
         <v>21</v>
       </c>
       <c r="I124" s="45"/>
-      <c r="J124" s="79"/>
+      <c r="J124" s="77"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="68"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="75"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="75"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="73"/>
       <c r="G125" s="38">
         <v>43556</v>
       </c>
       <c r="H125" s="38"/>
       <c r="I125" s="34"/>
-      <c r="J125" s="80"/>
+      <c r="J125" s="78"/>
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
-      <c r="A126" s="64" t="s">
+      <c r="A126" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B126" s="65"/>
-      <c r="C126" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="71"/>
-      <c r="E126" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F126" s="71"/>
-      <c r="G126" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H126" s="77"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F126" s="69"/>
+      <c r="G126" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" s="75"/>
       <c r="I126" s="44"/>
-      <c r="J126" s="78"/>
+      <c r="J126" s="76"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="66"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="73"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="71"/>
       <c r="G127" s="45" t="s">
         <v>17</v>
       </c>
@@ -3569,29 +3584,29 @@
       <c r="I127" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J127" s="79"/>
+      <c r="J127" s="77"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="66"/>
-      <c r="B128" s="67"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="73"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="71"/>
       <c r="G128" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H128" s="38"/>
       <c r="I128" s="38"/>
-      <c r="J128" s="79"/>
+      <c r="J128" s="77"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="66"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="73"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="71"/>
       <c r="G129" s="45" t="s">
         <v>20</v>
       </c>
@@ -3599,54 +3614,115 @@
         <v>21</v>
       </c>
       <c r="I129" s="45"/>
-      <c r="J129" s="79"/>
+      <c r="J129" s="77"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="68"/>
-      <c r="B130" s="69"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="75"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="75"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="72"/>
+      <c r="F130" s="73"/>
       <c r="G130" s="38">
         <v>43565</v>
       </c>
       <c r="H130" s="38"/>
       <c r="I130" s="34"/>
-      <c r="J130" s="80"/>
+      <c r="J130" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="A111:B115"/>
-    <mergeCell ref="C111:D115"/>
-    <mergeCell ref="E111:F115"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="J111:J115"/>
-    <mergeCell ref="A106:B110"/>
-    <mergeCell ref="C106:D110"/>
-    <mergeCell ref="E106:F110"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="A101:B105"/>
-    <mergeCell ref="C101:D105"/>
-    <mergeCell ref="E101:F105"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="A96:B100"/>
-    <mergeCell ref="C96:D100"/>
-    <mergeCell ref="E96:F100"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="J96:J100"/>
-    <mergeCell ref="A91:B95"/>
-    <mergeCell ref="C91:D95"/>
-    <mergeCell ref="E91:F95"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="J91:J95"/>
-    <mergeCell ref="A86:B90"/>
-    <mergeCell ref="C86:D90"/>
-    <mergeCell ref="E86:F90"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="J86:J90"/>
+  <mergeCells count="145">
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A126:B130"/>
+    <mergeCell ref="C126:D130"/>
+    <mergeCell ref="E126:F130"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="J126:J130"/>
+    <mergeCell ref="A116:B120"/>
+    <mergeCell ref="C116:D120"/>
+    <mergeCell ref="E116:F120"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="J116:J120"/>
+    <mergeCell ref="A121:B125"/>
+    <mergeCell ref="C121:D125"/>
+    <mergeCell ref="E121:F125"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="J121:J125"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A65:B69"/>
+    <mergeCell ref="C65:D69"/>
+    <mergeCell ref="E65:F69"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="A15:B19"/>
+    <mergeCell ref="C15:D19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="C21:D25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="A59:B63"/>
+    <mergeCell ref="C59:D63"/>
+    <mergeCell ref="E59:F63"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="C53:D57"/>
+    <mergeCell ref="E53:F57"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B37"/>
+    <mergeCell ref="C33:D37"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B31"/>
+    <mergeCell ref="C27:D31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="C39:D43"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A81:B85"/>
     <mergeCell ref="C81:D85"/>
     <mergeCell ref="E81:F85"/>
@@ -3671,93 +3747,36 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A39:B43"/>
-    <mergeCell ref="C39:D43"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A33:B37"/>
-    <mergeCell ref="C33:D37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A27:B31"/>
-    <mergeCell ref="C27:D31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="C53:D57"/>
-    <mergeCell ref="E53:F57"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A65:B69"/>
-    <mergeCell ref="C65:D69"/>
-    <mergeCell ref="E65:F69"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="A15:B19"/>
-    <mergeCell ref="C15:D19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B25"/>
-    <mergeCell ref="C21:D25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="A59:B63"/>
-    <mergeCell ref="C59:D63"/>
-    <mergeCell ref="E59:F63"/>
-    <mergeCell ref="A9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A126:B130"/>
-    <mergeCell ref="C126:D130"/>
-    <mergeCell ref="E126:F130"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="J126:J130"/>
-    <mergeCell ref="A116:B120"/>
-    <mergeCell ref="C116:D120"/>
-    <mergeCell ref="E116:F120"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="J116:J120"/>
-    <mergeCell ref="A121:B125"/>
-    <mergeCell ref="C121:D125"/>
-    <mergeCell ref="E121:F125"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="J121:J125"/>
+    <mergeCell ref="A91:B95"/>
+    <mergeCell ref="C91:D95"/>
+    <mergeCell ref="E91:F95"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="J91:J95"/>
+    <mergeCell ref="A86:B90"/>
+    <mergeCell ref="C86:D90"/>
+    <mergeCell ref="E86:F90"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="A101:B105"/>
+    <mergeCell ref="C101:D105"/>
+    <mergeCell ref="E101:F105"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="A96:B100"/>
+    <mergeCell ref="C96:D100"/>
+    <mergeCell ref="E96:F100"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="J96:J100"/>
+    <mergeCell ref="A111:B115"/>
+    <mergeCell ref="C111:D115"/>
+    <mergeCell ref="E111:F115"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="J111:J115"/>
+    <mergeCell ref="A106:B110"/>
+    <mergeCell ref="C106:D110"/>
+    <mergeCell ref="E106:F110"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="J106:J110"/>
   </mergeCells>
   <conditionalFormatting sqref="G58:H58 G64:H64 G70:H70">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
